--- a/table/rda/count_rda_anova.xlsx
+++ b/table/rda/count_rda_anova.xlsx
@@ -361,7 +361,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rownames(count_rda_axis)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rownames(count_rda_margin)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/table/rda/count_rda_anova.xlsx
+++ b/table/rda/count_rda_anova.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="count_rda_axis" sheetId="1" r:id="rId1"/>
-    <sheet name="count_rda_margin" sheetId="2" r:id="rId2"/>
+    <sheet name="count_rda_statistics" sheetId="1" r:id="rId1"/>
+    <sheet name="count_rda_axis" sheetId="2" r:id="rId2"/>
+    <sheet name="count_rda_margin" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -352,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -361,136 +362,44 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Df</t>
+          <t>R.squared</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Variance</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Pr(&gt;F)</t>
+          <t>Adj.R.squared</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RDA1</t>
+          <t>Full model</t>
         </is>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.3824413253767041</v>
       </c>
       <c r="C2">
-        <v>0.03498746664690323</v>
-      </c>
-      <c r="D2">
-        <v>5.056446801784377</v>
-      </c>
-      <c r="E2">
-        <v>0.0001</v>
+        <v>0.2095248964821812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RDA2</t>
+          <t>Backward selected</t>
         </is>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.3143555125444172</v>
       </c>
       <c r="C3">
-        <v>0.02368692758814497</v>
-      </c>
-      <c r="D3">
-        <v>3.423274124300591</v>
-      </c>
-      <c r="E3">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RDA3</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.01413325529144581</v>
-      </c>
-      <c r="D4">
-        <v>2.042561533204309</v>
-      </c>
-      <c r="E4">
-        <v>0.1027</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RDA4</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.008826537885478455</v>
-      </c>
-      <c r="D5">
-        <v>1.275625918054473</v>
-      </c>
-      <c r="E5">
-        <v>0.487</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RDA5</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.0040208503876398</v>
-      </c>
-      <c r="D6">
-        <v>0.5810999775496543</v>
-      </c>
-      <c r="E6">
-        <v>0.9064</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Residual</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>0.18682320540444</v>
+        <v>0.1873843111637536</v>
       </c>
     </row>
   </sheetData>
@@ -536,6 +445,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>RDA1</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.03498746664690321</v>
+      </c>
+      <c r="D2">
+        <v>5.056446801784375</v>
+      </c>
+      <c r="E2">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RDA2</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.02368692758814499</v>
+      </c>
+      <c r="D3">
+        <v>3.423274124300594</v>
+      </c>
+      <c r="E3">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RDA3</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.01413325529144582</v>
+      </c>
+      <c r="D4">
+        <v>2.042561533204311</v>
+      </c>
+      <c r="E4">
+        <v>0.1027</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RDA4</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.00882653788547845</v>
+      </c>
+      <c r="D5">
+        <v>1.275625918054472</v>
+      </c>
+      <c r="E5">
+        <v>0.487</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RDA5</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.004020850387639795</v>
+      </c>
+      <c r="D6">
+        <v>0.5810999775496536</v>
+      </c>
+      <c r="E6">
+        <v>0.9064</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>0.1868232054044401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Df</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Variance</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pr(&gt;F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>D50</t>
         </is>
       </c>
@@ -562,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.02787575329723496</v>
+        <v>0.02787575329723493</v>
       </c>
       <c r="D3">
-        <v>4.028650174350644</v>
+        <v>4.02865017435064</v>
       </c>
       <c r="E3">
         <v>0.0001</v>
@@ -581,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.02274232125038325</v>
+        <v>0.02274232125038333</v>
       </c>
       <c r="D4">
-        <v>3.286758047165773</v>
+        <v>3.286758047165786</v>
       </c>
       <c r="E4">
         <v>0.0002</v>
@@ -600,10 +657,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.02422539797390286</v>
+        <v>0.02422539797390294</v>
       </c>
       <c r="D5">
-        <v>3.501094758969551</v>
+        <v>3.501094758969563</v>
       </c>
       <c r="E5">
         <v>0.0001</v>
@@ -619,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.02728245494294029</v>
+        <v>0.02728245494294024</v>
       </c>
       <c r="D6">
-        <v>3.942905710587283</v>
+        <v>3.942905710587275</v>
       </c>
       <c r="E6">
         <v>0.0001</v>
